--- a/牛客笔试题/运算符.xlsx
+++ b/牛客笔试题/运算符.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiun.guo\Desktop\Interview\Interview\牛客笔试题\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33716937-DD3B-437F-9021-B68A982449A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="12140" windowHeight="4320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="4320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,15 +21,21 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>https://blog.csdn.net/qq_41573234/article/details/79669116</t>
+  </si>
+  <si>
+    <t>REFER TO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,345 +44,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -378,321 +75,38 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -708,13 +122,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -750,13 +170,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -792,13 +218,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -834,13 +266,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -876,13 +314,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -918,13 +362,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -960,13 +410,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1002,13 +458,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1044,13 +506,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1086,13 +554,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1128,13 +602,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1170,13 +650,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1212,13 +698,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1235,6 +727,94 @@
         <a:ln w="9525">
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>94003</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>18405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{549803C9-0555-4DA0-B1E9-68D36771AD3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="31375350"/>
+          <a:ext cx="9971428" cy="5161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>180227</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>66596</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64ED5EA1-4022-4340-8C13-0ECD26743526}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390525" y="36642675"/>
+          <a:ext cx="5980952" cy="628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1523,60 +1103,65 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B179:B180"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="AA162" sqref="AA162"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.09090909090909" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.09090909090909" customWidth="1"/>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
   </cols>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <sheetData>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B179" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B180" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/牛客笔试题/运算符.xlsx
+++ b/牛客笔试题/运算符.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiun.guo\Desktop\Interview\Interview\牛客笔试题\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33716937-DD3B-437F-9021-B68A982449A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="4320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="13875" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,20 +16,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+  <si>
+    <t>REFER TO</t>
+  </si>
   <si>
     <t>https://blog.csdn.net/qq_41573234/article/details/79669116</t>
-  </si>
-  <si>
-    <t>REFER TO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,30 +43,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -75,9 +396,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -85,28 +648,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -122,19 +729,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -142,7 +743,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="44450" y="165100"/>
-          <a:ext cx="5880100" cy="4019550"/>
+          <a:ext cx="6480175" cy="3873500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -170,27 +771,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6096000" y="482600"/>
-          <a:ext cx="8306435" cy="1644650"/>
+          <a:off x="6718300" y="469900"/>
+          <a:ext cx="9150985" cy="1587500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -218,27 +813,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="5054600"/>
-          <a:ext cx="4616450" cy="4235450"/>
+          <a:off x="635" y="4876800"/>
+          <a:ext cx="5083175" cy="4083050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -266,27 +855,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4616450" y="5473700"/>
-          <a:ext cx="8027035" cy="1581150"/>
+          <a:off x="5083175" y="5283200"/>
+          <a:ext cx="8849360" cy="1524000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -314,27 +897,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25400" y="10261600"/>
-          <a:ext cx="3746500" cy="1104900"/>
+          <a:off x="25400" y="9899650"/>
+          <a:ext cx="4124325" cy="1066800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -362,27 +939,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4013200" y="10547350"/>
-          <a:ext cx="6191885" cy="1333500"/>
+          <a:off x="4413250" y="10172700"/>
+          <a:ext cx="6836410" cy="1289050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -410,27 +981,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83820" y="13169900"/>
-          <a:ext cx="4533265" cy="4914900"/>
+          <a:off x="83820" y="12700000"/>
+          <a:ext cx="4999990" cy="4743450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -458,27 +1023,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="18884900"/>
-          <a:ext cx="4914900" cy="3556000"/>
+          <a:off x="38100" y="18211800"/>
+          <a:ext cx="5403850" cy="3429000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -506,27 +1065,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5378450" y="19989800"/>
-          <a:ext cx="6953885" cy="330200"/>
+          <a:off x="5911850" y="19278600"/>
+          <a:ext cx="7687310" cy="317500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -554,27 +1107,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="23177500"/>
-          <a:ext cx="3162300" cy="3975100"/>
+          <a:off x="635" y="22352000"/>
+          <a:ext cx="3473450" cy="3835400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -602,27 +1149,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3346450" y="24072850"/>
-          <a:ext cx="2393950" cy="2413000"/>
+          <a:off x="3679825" y="23215600"/>
+          <a:ext cx="2638425" cy="2330450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -650,27 +1191,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="27838400"/>
-          <a:ext cx="5245100" cy="3079750"/>
+          <a:off x="635" y="26847800"/>
+          <a:ext cx="5778500" cy="2971800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -698,27 +1233,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5168900" y="28422600"/>
-          <a:ext cx="2895600" cy="514350"/>
+          <a:off x="5680075" y="27412950"/>
+          <a:ext cx="3206750" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -746,19 +1275,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{549803C9-0555-4DA0-B1E9-68D36771AD3D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -766,7 +1289,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="123825" y="31375350"/>
-          <a:ext cx="9971428" cy="5161905"/>
+          <a:ext cx="9971405" cy="5161280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -790,19 +1313,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64ED5EA1-4022-4340-8C13-0ECD26743526}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -810,11 +1327,95 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="390525" y="36642675"/>
-          <a:ext cx="5980952" cy="628571"/>
+          <a:ext cx="5980430" cy="628015"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="38119050"/>
+          <a:ext cx="3276600" cy="4038600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3819525" y="39204900"/>
+          <a:ext cx="4972050" cy="4933950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1103,65 +1704,72 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B179:B180"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B179:B228"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="B180" sqref="B180"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="AF223" sqref="AF223"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:2">
       <c r="B179" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B180" t="s">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="228" ht="12" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/牛客笔试题/运算符.xlsx
+++ b/牛客笔试题/运算符.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13875" windowHeight="10275"/>
+    <workbookView windowWidth="19080" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>REFER TO</t>
   </si>
@@ -29,12 +29,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,21 +44,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -68,6 +83,69 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -80,22 +158,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,45 +173,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -155,40 +180,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,187 +196,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,6 +387,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -412,17 +420,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,28 +447,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,18 +479,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,10 +495,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -514,133 +507,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -648,7 +641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1408,6 +1401,90 @@
         <a:xfrm>
           <a:off x="3819525" y="39204900"/>
           <a:ext cx="4972050" cy="4933950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="45672375"/>
+          <a:ext cx="4924425" cy="6886575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>359</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="53216175"/>
+          <a:ext cx="5029200" cy="8343900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1712,8 +1789,8 @@
   <sheetPr/>
   <dimension ref="B179:B228"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="AF223" sqref="AF223"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A291" workbookViewId="0">
+      <selection activeCell="AE308" sqref="AE307:AF308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/牛客笔试题/运算符.xlsx
+++ b/牛客笔试题/运算符.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19080" windowHeight="10950"/>
+    <workbookView windowWidth="24015" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,14 +44,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -65,52 +134,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -125,49 +158,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,13 +186,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -196,49 +196,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,25 +346,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,103 +370,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,17 +390,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -420,33 +423,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -458,6 +434,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,6 +478,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -495,10 +495,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -507,133 +507,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1485,6 +1485,90 @@
         <a:xfrm>
           <a:off x="304800" y="53216175"/>
           <a:ext cx="5029200" cy="8343900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>362</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>405</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="62055375"/>
+          <a:ext cx="5276850" cy="7448550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>417</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="69932550"/>
+          <a:ext cx="5800725" cy="1562100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1789,8 +1873,8 @@
   <sheetPr/>
   <dimension ref="B179:B228"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A291" workbookViewId="0">
-      <selection activeCell="AE308" sqref="AE307:AF308"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A387" workbookViewId="0">
+      <selection activeCell="AB406" sqref="AB406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" outlineLevelCol="1"/>
